--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,43 +477,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -521,7 +488,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="2">
         <v>0.24659999999999999</v>
@@ -565,7 +532,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="2">
         <v>0.24659999999999999</v>
@@ -609,7 +576,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="2">
         <v>0.24659999999999999</v>
@@ -653,34 +620,34 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="2">
-        <v>0.43190000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>0.41700000000000004</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.27690000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.39890000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F6" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.32319999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>0.30030000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>0.309</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>0.29759999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K6" s="2">
         <v>0.24659999999999999</v>
@@ -694,703 +661,741 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="2">
-        <v>0.47210000000000002</v>
+        <v>0.43190000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37889999999999996</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="D7" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.27690000000000003</v>
       </c>
       <c r="E7" s="2">
-        <v>0.46389999999999998</v>
+        <v>0.39890000000000003</v>
       </c>
       <c r="F7" s="2">
-        <v>0.37729999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>0.40029999999999999</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>0.45139999999999997</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>0.40910000000000002</v>
+        <v>0.309</v>
       </c>
       <c r="J7" s="2">
-        <v>0.50169999999999992</v>
+        <v>0.29759999999999998</v>
       </c>
       <c r="K7" s="2">
-        <v>0.40449999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>0.40710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M7" s="2">
-        <v>0.38969999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="2">
-        <v>0.35209999999999997</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>0.33460000000000001</v>
+        <v>0.37889999999999996</v>
       </c>
       <c r="D8" s="2">
-        <v>0.26340000000000002</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3765</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="F8" s="2">
-        <v>0.35420000000000001</v>
+        <v>0.37729999999999997</v>
       </c>
       <c r="G8" s="2">
-        <v>0.36219999999999997</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0.42830000000000001</v>
+        <v>0.45139999999999997</v>
       </c>
       <c r="I8" s="2">
-        <v>0.47759999999999997</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="J8" s="2">
-        <v>0.43369999999999997</v>
+        <v>0.50169999999999992</v>
       </c>
       <c r="K8" s="2">
-        <v>0.439</v>
+        <v>0.40449999999999997</v>
       </c>
       <c r="L8" s="2">
-        <v>0.42599999999999999</v>
+        <v>0.40710000000000002</v>
       </c>
       <c r="M8" s="2">
-        <v>0.37659999999999999</v>
+        <v>0.38969999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="2">
-        <v>0.29610000000000003</v>
+        <v>0.35209999999999997</v>
       </c>
       <c r="C9" s="2">
-        <v>0.35949999999999999</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3004</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="E9" s="2">
-        <v>0.2732</v>
+        <v>0.3765</v>
       </c>
       <c r="F9" s="2">
-        <v>0.29260000000000003</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.30709999999999998</v>
+        <v>0.36219999999999997</v>
       </c>
       <c r="H9" s="2">
-        <v>0.29320000000000002</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>0.35220000000000001</v>
+        <v>0.47759999999999997</v>
       </c>
       <c r="J9" s="2">
-        <v>0.30690000000000001</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="K9" s="2">
-        <v>0.33409999999999995</v>
+        <v>0.439</v>
       </c>
       <c r="L9" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="M9" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.37659999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29610000000000003</v>
       </c>
       <c r="C10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.3004</v>
       </c>
       <c r="E10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2732</v>
       </c>
       <c r="F10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="G10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="I10" s="2">
-        <v>0.26749999999999996</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>0.2545</v>
+        <v>0.33409999999999995</v>
       </c>
       <c r="L10" s="2">
-        <v>0.33879999999999999</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="M10" s="2">
-        <v>0.26729999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B11" s="2">
-        <v>0.34050000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>0.3332</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D11" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>0.35360000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>0.26929999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G11" s="2">
-        <v>0.29349999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H11" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="I11" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.26749999999999996</v>
       </c>
       <c r="J11" s="2">
-        <v>0.25890000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2545</v>
       </c>
       <c r="L11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="M11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.26729999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="C12" s="2">
-        <v>0.31830000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="D12" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>0.36809999999999998</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="F12" s="2">
-        <v>0.28360000000000002</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="G12" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>0.35830000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>0.36980000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>0.45469999999999999</v>
+        <v>0.25890000000000002</v>
       </c>
       <c r="K12" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L12" s="2">
-        <v>0.30869999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M12" s="2">
-        <v>0.31120000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>0.3</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31830000000000003</v>
       </c>
       <c r="D13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="F13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="G13" s="2">
-        <v>0.29770000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="H13" s="2">
-        <v>0.30560000000000004</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.36980000000000002</v>
       </c>
       <c r="J13" s="2">
-        <v>0.3377</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="K13" s="2">
-        <v>0.31690000000000002</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="L13" s="2">
-        <v>0.29389999999999999</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="M13" s="2">
-        <v>0.28029999999999999</v>
+        <v>0.31120000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.43099999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2918</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>0.39069999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>0.29210000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G14" s="2">
-        <v>0.29160000000000003</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="H14" s="2">
-        <v>0.31229999999999997</v>
+        <v>0.30560000000000004</v>
       </c>
       <c r="I14" s="2">
-        <v>0.35189999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J14" s="2">
-        <v>0.26629999999999998</v>
+        <v>0.3377</v>
       </c>
       <c r="K14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="L14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="M14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28029999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B15" s="2">
-        <v>0.31069999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C15" s="2">
-        <v>0.3478</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="D15" s="2">
-        <v>0.27090000000000003</v>
+        <v>0.2918</v>
       </c>
       <c r="E15" s="2">
-        <v>0.28760000000000002</v>
+        <v>0.39069999999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>0.34229999999999999</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="G15" s="2">
-        <v>0.32039999999999996</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="H15" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.31229999999999997</v>
       </c>
       <c r="I15" s="2">
-        <v>0.43840000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>0.40439999999999998</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="K15" s="2">
-        <v>0.44409999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L15" s="2">
-        <v>0.49779999999999996</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M15" s="2">
-        <v>0.40879999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="2">
-        <v>0.3992</v>
+        <v>0.31069999999999998</v>
       </c>
       <c r="C16" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.3478</v>
       </c>
       <c r="D16" s="2">
-        <v>0.31890000000000002</v>
+        <v>0.27090000000000003</v>
       </c>
       <c r="E16" s="2">
-        <v>0.43459999999999999</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="F16" s="2">
-        <v>0.37409999999999999</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>0.41590000000000005</v>
+        <v>0.32039999999999996</v>
       </c>
       <c r="H16" s="2">
-        <v>0.3422</v>
+        <v>0.36150000000000004</v>
       </c>
       <c r="I16" s="2">
-        <v>0.39379999999999998</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="J16" s="2">
-        <v>0.39350000000000002</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="K16" s="2">
-        <v>0.28189999999999998</v>
+        <v>0.44409999999999994</v>
       </c>
       <c r="L16" s="2">
-        <v>0.36110000000000003</v>
+        <v>0.49779999999999996</v>
       </c>
       <c r="M16" s="2">
-        <v>0.30569999999999997</v>
+        <v>0.40879999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="2">
-        <v>0.47400000000000003</v>
+        <v>0.3992</v>
       </c>
       <c r="C17" s="2">
-        <v>0.47970000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>0.31930000000000003</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="E17" s="2">
-        <v>0.45440000000000003</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>0.33229999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="G17" s="2">
-        <v>0.43579999999999997</v>
+        <v>0.41590000000000005</v>
       </c>
       <c r="H17" s="2">
-        <v>0.44079999999999997</v>
+        <v>0.3422</v>
       </c>
       <c r="I17" s="2">
-        <v>0.42209999999999998</v>
+        <v>0.39379999999999998</v>
       </c>
       <c r="J17" s="2">
-        <v>0.49080000000000001</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="K17" s="2">
-        <v>0.39909999999999995</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="L17" s="2">
-        <v>0.4345</v>
+        <v>0.36110000000000003</v>
       </c>
       <c r="M17" s="2">
-        <v>0.37509999999999999</v>
+        <v>0.30569999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="2">
-        <v>0.48719999999999997</v>
+        <v>0.47400000000000003</v>
       </c>
       <c r="C18" s="2">
-        <v>0.43499999999999994</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="D18" s="2">
-        <v>0.34299999999999997</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>0.51070000000000004</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="F18" s="2">
-        <v>0.44739999999999996</v>
+        <v>0.33229999999999998</v>
       </c>
       <c r="G18" s="2">
-        <v>0.49990000000000001</v>
+        <v>0.43579999999999997</v>
       </c>
       <c r="H18" s="2">
-        <v>0.54660000000000009</v>
+        <v>0.44079999999999997</v>
       </c>
       <c r="I18" s="2">
-        <v>0.54070000000000007</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="J18" s="2">
-        <v>0.59399999999999997</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="K18" s="2">
-        <v>0.51090000000000002</v>
+        <v>0.39909999999999995</v>
       </c>
       <c r="L18" s="2">
-        <v>0.45710000000000006</v>
+        <v>0.4345</v>
       </c>
       <c r="M18" s="2">
-        <v>0.44</v>
+        <v>0.37509999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="2">
-        <v>0.43689999999999996</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="C19" s="2">
-        <v>0.37490000000000001</v>
+        <v>0.43499999999999994</v>
       </c>
       <c r="D19" s="2">
-        <v>0.29249999999999998</v>
+        <v>0.34299999999999997</v>
       </c>
       <c r="E19" s="2">
-        <v>0.42480000000000001</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="F19" s="2">
-        <v>0.3342</v>
+        <v>0.44739999999999996</v>
       </c>
       <c r="G19" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="H19" s="2">
-        <v>0.42310000000000003</v>
+        <v>0.54660000000000009</v>
       </c>
       <c r="I19" s="2">
-        <v>0.44229999999999997</v>
+        <v>0.54070000000000007</v>
       </c>
       <c r="J19" s="2">
-        <v>0.4476</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="K19" s="2">
-        <v>0.41980000000000006</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="L19" s="2">
-        <v>0.35760000000000003</v>
+        <v>0.45710000000000006</v>
       </c>
       <c r="M19" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2">
-        <v>0.60840000000000005</v>
+        <v>0.43689999999999996</v>
       </c>
       <c r="C20" s="2">
-        <v>0.73559999999999992</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>0.65920000000000001</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="E20" s="2">
-        <v>0.62570000000000003</v>
+        <v>0.42480000000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>0.66600000000000004</v>
+        <v>0.3342</v>
       </c>
       <c r="G20" s="2">
-        <v>0.7127</v>
+        <v>0.40159999999999996</v>
       </c>
       <c r="H20" s="2">
-        <v>0.66420000000000001</v>
+        <v>0.42310000000000003</v>
       </c>
       <c r="I20" s="2">
-        <v>0.7944</v>
+        <v>0.44229999999999997</v>
       </c>
       <c r="J20" s="2">
-        <v>0.65139999999999998</v>
+        <v>0.4476</v>
       </c>
       <c r="K20" s="2">
-        <v>0.58379999999999999</v>
+        <v>0.41980000000000006</v>
       </c>
       <c r="L20" s="2">
-        <v>0.56869999999999998</v>
+        <v>0.35760000000000003</v>
       </c>
       <c r="M20" s="2">
-        <v>0.42459999999999998</v>
+        <v>0.36150000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B21" s="2">
-        <v>0.44539999999999996</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="C21" s="2">
-        <v>0.50629999999999997</v>
+        <v>0.73559999999999992</v>
       </c>
       <c r="D21" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0.42280000000000001</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="F21" s="2">
-        <v>0.4829</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G21" s="2">
-        <v>0.45729999999999998</v>
+        <v>0.7127</v>
       </c>
       <c r="H21" s="2">
-        <v>0.4052</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>0.51279999999999992</v>
+        <v>0.7944</v>
       </c>
       <c r="J21" s="2">
-        <v>0.49530000000000002</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="K21" s="2">
-        <v>0.44260000000000005</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="L21" s="2">
-        <v>0.52410000000000001</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="M21" s="2">
-        <v>0.51159999999999994</v>
+        <v>0.42459999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="2">
-        <v>0.34589999999999999</v>
+        <v>0.44539999999999996</v>
       </c>
       <c r="C22" s="2">
-        <v>0.38379999999999997</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="D22" s="2">
-        <v>0.28349999999999997</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E22" s="2">
-        <v>0.4194</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.4829</v>
       </c>
       <c r="G22" s="2">
-        <v>0.42969999999999997</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="H22" s="2">
-        <v>0.39269999999999999</v>
+        <v>0.4052</v>
       </c>
       <c r="I22" s="2">
-        <v>0.49129999999999996</v>
+        <v>0.51279999999999992</v>
       </c>
       <c r="J22" s="2">
-        <v>0.59100000000000008</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="K22" s="2">
-        <v>0.40970000000000001</v>
+        <v>0.44260000000000005</v>
       </c>
       <c r="L22" s="2">
-        <v>0.53859999999999997</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="M22" s="2">
-        <v>0.43990000000000001</v>
+        <v>0.51159999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.4194</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.40159999999999996</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.42969999999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.49129999999999996</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.59100000000000008</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.43990000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>0.54710000000000003</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>0.48</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>0.4713</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>0.377</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>0.49639999999999995</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>0.46109999999999995</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>0.40169999999999995</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>0.4496</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <v>0.35060000000000002</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <v>0.3785</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M24" s="2">
         <v>0.36659999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1400,6 +1405,9 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:M50">

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -482,6 +482,9 @@
       <c r="B2" s="2">
         <v>0.29549999999999998</v>
       </c>
+      <c r="C2" s="2">
+        <v>0.30719999999999997</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -485,6 +485,9 @@
       <c r="C2" s="2">
         <v>0.30719999999999997</v>
       </c>
+      <c r="D2" s="2">
+        <v>0.24660000000000001</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -488,6 +488,9 @@
       <c r="D2" s="2">
         <v>0.24660000000000001</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.34389999999999998</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -491,6 +491,9 @@
       <c r="E2" s="2">
         <v>0.34389999999999998</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.30220000000000002</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -494,6 +494,12 @@
       <c r="F2" s="2">
         <v>0.30220000000000002</v>
       </c>
+      <c r="G2" s="2">
+        <v>0.4133</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39529999999999998</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -500,6 +500,9 @@
       <c r="H2" s="2">
         <v>0.39529999999999998</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.41010000000000002</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -503,6 +503,12 @@
       <c r="I2" s="2">
         <v>0.41010000000000002</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.42749999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -509,6 +509,9 @@
       <c r="K2" s="2">
         <v>0.42749999999999999</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.39629999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,92 +477,66 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="2">
-        <v>0.29549999999999998</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>0.30719999999999997</v>
+        <v>0.45519999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.34389999999999998</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.4133</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.41010000000000002</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.48809999999999998</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.39629999999999999</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="D3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.34389999999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30220000000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.4133</v>
       </c>
       <c r="H3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="I3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.48809999999999998</v>
       </c>
       <c r="K3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="L3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.39629999999999999</v>
       </c>
       <c r="M3" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.39760000000000001</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="2">
         <v>0.24659999999999999</v>
@@ -601,12 +575,12 @@
         <v>0.24659999999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="2">
         <v>0.24659999999999999</v>
@@ -645,12 +619,12 @@
         <v>0.24659999999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="2">
         <v>0.24659999999999999</v>
@@ -687,38 +661,41 @@
       </c>
       <c r="M6" s="2">
         <v>0.24659999999999999</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="2">
-        <v>0.43190000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>0.41700000000000004</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.27690000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>0.39890000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>0.32319999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>0.30030000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I7" s="2">
-        <v>0.309</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="J7" s="2">
-        <v>0.29759999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K7" s="2">
         <v>0.24659999999999999</v>
@@ -732,703 +709,741 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="2">
-        <v>0.47210000000000002</v>
+        <v>0.43190000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>0.37889999999999996</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="D8" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.27690000000000003</v>
       </c>
       <c r="E8" s="2">
-        <v>0.46389999999999998</v>
+        <v>0.39890000000000003</v>
       </c>
       <c r="F8" s="2">
-        <v>0.37729999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>0.40029999999999999</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0.45139999999999997</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>0.40910000000000002</v>
+        <v>0.309</v>
       </c>
       <c r="J8" s="2">
-        <v>0.50169999999999992</v>
+        <v>0.29759999999999998</v>
       </c>
       <c r="K8" s="2">
-        <v>0.40449999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L8" s="2">
-        <v>0.40710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M8" s="2">
-        <v>0.38969999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="2">
-        <v>0.35209999999999997</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>0.33460000000000001</v>
+        <v>0.37889999999999996</v>
       </c>
       <c r="D9" s="2">
-        <v>0.26340000000000002</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E9" s="2">
-        <v>0.3765</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>0.35420000000000001</v>
+        <v>0.37729999999999997</v>
       </c>
       <c r="G9" s="2">
-        <v>0.36219999999999997</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>0.42830000000000001</v>
+        <v>0.45139999999999997</v>
       </c>
       <c r="I9" s="2">
-        <v>0.47759999999999997</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="J9" s="2">
-        <v>0.43369999999999997</v>
+        <v>0.50169999999999992</v>
       </c>
       <c r="K9" s="2">
-        <v>0.439</v>
+        <v>0.40449999999999997</v>
       </c>
       <c r="L9" s="2">
-        <v>0.42599999999999999</v>
+        <v>0.40710000000000002</v>
       </c>
       <c r="M9" s="2">
-        <v>0.37659999999999999</v>
+        <v>0.38969999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="2">
-        <v>0.29610000000000003</v>
+        <v>0.35209999999999997</v>
       </c>
       <c r="C10" s="2">
-        <v>0.35949999999999999</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3004</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="E10" s="2">
-        <v>0.2732</v>
+        <v>0.3765</v>
       </c>
       <c r="F10" s="2">
-        <v>0.29260000000000003</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.30709999999999998</v>
+        <v>0.36219999999999997</v>
       </c>
       <c r="H10" s="2">
-        <v>0.29320000000000002</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>0.35220000000000001</v>
+        <v>0.47759999999999997</v>
       </c>
       <c r="J10" s="2">
-        <v>0.30690000000000001</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="K10" s="2">
-        <v>0.33409999999999995</v>
+        <v>0.439</v>
       </c>
       <c r="L10" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="M10" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.37659999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29610000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.3004</v>
       </c>
       <c r="E11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2732</v>
       </c>
       <c r="F11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="G11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="H11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="I11" s="2">
-        <v>0.26749999999999996</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2545</v>
+        <v>0.33409999999999995</v>
       </c>
       <c r="L11" s="2">
-        <v>0.33879999999999999</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="M11" s="2">
-        <v>0.26729999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="2">
-        <v>0.34050000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>0.3332</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D12" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>0.35360000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F12" s="2">
-        <v>0.26929999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>0.29349999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H12" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.26749999999999996</v>
       </c>
       <c r="J12" s="2">
-        <v>0.25890000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2545</v>
       </c>
       <c r="L12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="M12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.26729999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="C13" s="2">
-        <v>0.31830000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="D13" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0.36809999999999998</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="F13" s="2">
-        <v>0.28360000000000002</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="G13" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="H13" s="2">
-        <v>0.35830000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>0.36980000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>0.45469999999999999</v>
+        <v>0.25890000000000002</v>
       </c>
       <c r="K13" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L13" s="2">
-        <v>0.30869999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M13" s="2">
-        <v>0.31120000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="2">
-        <v>0.3</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31830000000000003</v>
       </c>
       <c r="D14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="F14" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>0.29770000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="H14" s="2">
-        <v>0.30560000000000004</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.36980000000000002</v>
       </c>
       <c r="J14" s="2">
-        <v>0.3377</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.31690000000000002</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="L14" s="2">
-        <v>0.29389999999999999</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="M14" s="2">
-        <v>0.28029999999999999</v>
+        <v>0.31120000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="2">
-        <v>0.43099999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.2918</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E15" s="2">
-        <v>0.39069999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>0.29210000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>0.29160000000000003</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="H15" s="2">
-        <v>0.31229999999999997</v>
+        <v>0.30560000000000004</v>
       </c>
       <c r="I15" s="2">
-        <v>0.35189999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>0.26629999999999998</v>
+        <v>0.3377</v>
       </c>
       <c r="K15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="L15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="M15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28029999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" s="2">
-        <v>0.31069999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C16" s="2">
-        <v>0.3478</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="D16" s="2">
-        <v>0.27090000000000003</v>
+        <v>0.2918</v>
       </c>
       <c r="E16" s="2">
-        <v>0.28760000000000002</v>
+        <v>0.39069999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>0.34229999999999999</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="G16" s="2">
-        <v>0.32039999999999996</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="H16" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.31229999999999997</v>
       </c>
       <c r="I16" s="2">
-        <v>0.43840000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>0.40439999999999998</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="K16" s="2">
-        <v>0.44409999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L16" s="2">
-        <v>0.49779999999999996</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M16" s="2">
-        <v>0.40879999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B17" s="2">
-        <v>0.3992</v>
+        <v>0.31069999999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.3478</v>
       </c>
       <c r="D17" s="2">
-        <v>0.31890000000000002</v>
+        <v>0.27090000000000003</v>
       </c>
       <c r="E17" s="2">
-        <v>0.43459999999999999</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>0.37409999999999999</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="G17" s="2">
-        <v>0.41590000000000005</v>
+        <v>0.32039999999999996</v>
       </c>
       <c r="H17" s="2">
-        <v>0.3422</v>
+        <v>0.36150000000000004</v>
       </c>
       <c r="I17" s="2">
-        <v>0.39379999999999998</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>0.39350000000000002</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="K17" s="2">
-        <v>0.28189999999999998</v>
+        <v>0.44409999999999994</v>
       </c>
       <c r="L17" s="2">
-        <v>0.36110000000000003</v>
+        <v>0.49779999999999996</v>
       </c>
       <c r="M17" s="2">
-        <v>0.30569999999999997</v>
+        <v>0.40879999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="2">
-        <v>0.47400000000000003</v>
+        <v>0.3992</v>
       </c>
       <c r="C18" s="2">
-        <v>0.47970000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>0.31930000000000003</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>0.45440000000000003</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.33229999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="G18" s="2">
-        <v>0.43579999999999997</v>
+        <v>0.41590000000000005</v>
       </c>
       <c r="H18" s="2">
-        <v>0.44079999999999997</v>
+        <v>0.3422</v>
       </c>
       <c r="I18" s="2">
-        <v>0.42209999999999998</v>
+        <v>0.39379999999999998</v>
       </c>
       <c r="J18" s="2">
-        <v>0.49080000000000001</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="K18" s="2">
-        <v>0.39909999999999995</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="L18" s="2">
-        <v>0.4345</v>
+        <v>0.36110000000000003</v>
       </c>
       <c r="M18" s="2">
-        <v>0.37509999999999999</v>
+        <v>0.30569999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" s="2">
-        <v>0.48719999999999997</v>
+        <v>0.47400000000000003</v>
       </c>
       <c r="C19" s="2">
-        <v>0.43499999999999994</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="D19" s="2">
-        <v>0.34299999999999997</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="E19" s="2">
-        <v>0.51070000000000004</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="F19" s="2">
-        <v>0.44739999999999996</v>
+        <v>0.33229999999999998</v>
       </c>
       <c r="G19" s="2">
-        <v>0.49990000000000001</v>
+        <v>0.43579999999999997</v>
       </c>
       <c r="H19" s="2">
-        <v>0.54660000000000009</v>
+        <v>0.44079999999999997</v>
       </c>
       <c r="I19" s="2">
-        <v>0.54070000000000007</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="J19" s="2">
-        <v>0.59399999999999997</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="K19" s="2">
-        <v>0.51090000000000002</v>
+        <v>0.39909999999999995</v>
       </c>
       <c r="L19" s="2">
-        <v>0.45710000000000006</v>
+        <v>0.4345</v>
       </c>
       <c r="M19" s="2">
-        <v>0.44</v>
+        <v>0.37509999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B20" s="2">
-        <v>0.43689999999999996</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>0.37490000000000001</v>
+        <v>0.43499999999999994</v>
       </c>
       <c r="D20" s="2">
-        <v>0.29249999999999998</v>
+        <v>0.34299999999999997</v>
       </c>
       <c r="E20" s="2">
-        <v>0.42480000000000001</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="F20" s="2">
-        <v>0.3342</v>
+        <v>0.44739999999999996</v>
       </c>
       <c r="G20" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>0.42310000000000003</v>
+        <v>0.54660000000000009</v>
       </c>
       <c r="I20" s="2">
-        <v>0.44229999999999997</v>
+        <v>0.54070000000000007</v>
       </c>
       <c r="J20" s="2">
-        <v>0.4476</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="K20" s="2">
-        <v>0.41980000000000006</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="L20" s="2">
-        <v>0.35760000000000003</v>
+        <v>0.45710000000000006</v>
       </c>
       <c r="M20" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="2">
-        <v>0.60840000000000005</v>
+        <v>0.43689999999999996</v>
       </c>
       <c r="C21" s="2">
-        <v>0.73559999999999992</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>0.65920000000000001</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="E21" s="2">
-        <v>0.62570000000000003</v>
+        <v>0.42480000000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>0.66600000000000004</v>
+        <v>0.3342</v>
       </c>
       <c r="G21" s="2">
-        <v>0.7127</v>
+        <v>0.40159999999999996</v>
       </c>
       <c r="H21" s="2">
-        <v>0.66420000000000001</v>
+        <v>0.42310000000000003</v>
       </c>
       <c r="I21" s="2">
-        <v>0.7944</v>
+        <v>0.44229999999999997</v>
       </c>
       <c r="J21" s="2">
-        <v>0.65139999999999998</v>
+        <v>0.4476</v>
       </c>
       <c r="K21" s="2">
-        <v>0.58379999999999999</v>
+        <v>0.41980000000000006</v>
       </c>
       <c r="L21" s="2">
-        <v>0.56869999999999998</v>
+        <v>0.35760000000000003</v>
       </c>
       <c r="M21" s="2">
-        <v>0.42459999999999998</v>
+        <v>0.36150000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B22" s="2">
-        <v>0.44539999999999996</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="C22" s="2">
-        <v>0.50629999999999997</v>
+        <v>0.73559999999999992</v>
       </c>
       <c r="D22" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>0.42280000000000001</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="F22" s="2">
-        <v>0.4829</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G22" s="2">
-        <v>0.45729999999999998</v>
+        <v>0.7127</v>
       </c>
       <c r="H22" s="2">
-        <v>0.4052</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>0.51279999999999992</v>
+        <v>0.7944</v>
       </c>
       <c r="J22" s="2">
-        <v>0.49530000000000002</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="K22" s="2">
-        <v>0.44260000000000005</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="L22" s="2">
-        <v>0.52410000000000001</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="M22" s="2">
-        <v>0.51159999999999994</v>
+        <v>0.42459999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="2">
-        <v>0.34589999999999999</v>
+        <v>0.44539999999999996</v>
       </c>
       <c r="C23" s="2">
-        <v>0.38379999999999997</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="D23" s="2">
-        <v>0.28349999999999997</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>0.4194</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="F23" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.4829</v>
       </c>
       <c r="G23" s="2">
-        <v>0.42969999999999997</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="H23" s="2">
-        <v>0.39269999999999999</v>
+        <v>0.4052</v>
       </c>
       <c r="I23" s="2">
-        <v>0.49129999999999996</v>
+        <v>0.51279999999999992</v>
       </c>
       <c r="J23" s="2">
-        <v>0.59100000000000008</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="K23" s="2">
-        <v>0.40970000000000001</v>
+        <v>0.44260000000000005</v>
       </c>
       <c r="L23" s="2">
-        <v>0.53859999999999997</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="M23" s="2">
-        <v>0.43990000000000001</v>
+        <v>0.51159999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.4194</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.40159999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.42969999999999997</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.49129999999999996</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.59100000000000008</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.43990000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2000</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>0.54710000000000003</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>0.48</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>0.4713</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>0.377</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>0.49639999999999995</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>0.46109999999999995</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>0.40169999999999995</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="2">
         <v>0.4496</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="2">
         <v>0.35060000000000002</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="2">
         <v>0.3785</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M25" s="2">
         <v>0.36659999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1438,6 +1453,9 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:M50">

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -488,6 +488,15 @@
       <c r="D2" s="2">
         <v>0.32979999999999998</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.4864</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.46179999999999999</v>
+      </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -497,7 +497,24 @@
       <c r="G2" s="2">
         <v>0.46179999999999999</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="H2" s="2">
+        <v>0.4269</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.3599</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -540,7 +557,7 @@
         <v>0.39760000000000001</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -584,7 +601,7 @@
         <v>0.24659999999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -628,7 +645,7 @@
         <v>0.24659999999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -670,9 +687,6 @@
       </c>
       <c r="M6" s="2">
         <v>0.24659999999999999</v>
-      </c>
-      <c r="O6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/FGTS.xlsx
+++ b/indexer_lib/data/FGTS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110916FC-99CD-46CB-A2FC-93D8A14C6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ano</t>
   </si>
@@ -54,26 +55,11 @@
   <si>
     <t>Dezembro</t>
   </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>http://www.yahii.com.br/fgts03a06.html</t>
-  </si>
-  <si>
-    <t>http://www.yahii.com.br/fgts11a19.html</t>
-  </si>
-  <si>
-    <t>http://www.yahii.com.br/fgts03a10.html</t>
-  </si>
-  <si>
-    <t>http://www.yahii.com.br/fgts96a02.html</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -137,7 +123,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -210,6 +196,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,9 +248,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,8 +440,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,142 +491,116 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="2">
-        <v>0.45429999999999998</v>
+        <v>0.31569999999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>0.45519999999999999</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.32979999999999998</v>
+        <v>0.2545</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4864</v>
+        <v>0.1024</v>
       </c>
       <c r="F2" s="2">
-        <v>0.32890000000000003</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="G2" s="2">
-        <v>0.46179999999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.4269</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.40510000000000002</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.46310000000000001</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.3599</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.35239999999999999</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
+        <v>0.33379999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2">
-        <v>0.29549999999999998</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>0.30719999999999997</v>
+        <v>0.45519999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.24660000000000001</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>0.34389999999999998</v>
+        <v>0.4864</v>
       </c>
       <c r="F3" s="2">
-        <v>0.30220000000000002</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="G3" s="2">
-        <v>0.4133</v>
+        <v>0.46179999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>0.39529999999999998</v>
+        <v>0.4269</v>
       </c>
       <c r="I3" s="2">
-        <v>0.41010000000000002</v>
+        <v>0.40510000000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>0.48809999999999998</v>
+        <v>0.46310000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>0.42749999999999999</v>
+        <v>0.3599</v>
       </c>
       <c r="L3" s="2">
-        <v>0.39629999999999999</v>
+        <v>0.35239999999999999</v>
       </c>
       <c r="M3" s="2">
-        <v>0.39760000000000001</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
+        <v>0.32429999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="D4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.34389999999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30220000000000002</v>
       </c>
       <c r="G4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.4133</v>
       </c>
       <c r="H4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="I4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="J4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.48809999999999998</v>
       </c>
       <c r="K4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="L4" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.39629999999999999</v>
       </c>
       <c r="M4" s="2">
-        <v>0.24659999999999999</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
+        <v>0.39760000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="2">
         <v>0.24659999999999999</v>
@@ -643,14 +637,11 @@
       </c>
       <c r="M5" s="2">
         <v>0.24659999999999999</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="2">
         <v>0.24659999999999999</v>
@@ -691,7 +682,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="2">
         <v>0.24659999999999999</v>
@@ -732,34 +723,34 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="2">
-        <v>0.43190000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>0.41700000000000004</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.27690000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>0.39890000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F8" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>0.32319999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0.30030000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>0.309</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="J8" s="2">
-        <v>0.29759999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K8" s="2">
         <v>0.24659999999999999</v>
@@ -773,703 +764,741 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="2">
-        <v>0.47210000000000002</v>
+        <v>0.43190000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.37889999999999996</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="D9" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.27690000000000003</v>
       </c>
       <c r="E9" s="2">
-        <v>0.46389999999999998</v>
+        <v>0.39890000000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>0.37729999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G9" s="2">
-        <v>0.40029999999999999</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>0.45139999999999997</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>0.40910000000000002</v>
+        <v>0.309</v>
       </c>
       <c r="J9" s="2">
-        <v>0.50169999999999992</v>
+        <v>0.29759999999999998</v>
       </c>
       <c r="K9" s="2">
-        <v>0.40449999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L9" s="2">
-        <v>0.40710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M9" s="2">
-        <v>0.38969999999999999</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="2">
-        <v>0.35209999999999997</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>0.33460000000000001</v>
+        <v>0.37889999999999996</v>
       </c>
       <c r="D10" s="2">
-        <v>0.26340000000000002</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3765</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="F10" s="2">
-        <v>0.35420000000000001</v>
+        <v>0.37729999999999997</v>
       </c>
       <c r="G10" s="2">
-        <v>0.36219999999999997</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>0.42830000000000001</v>
+        <v>0.45139999999999997</v>
       </c>
       <c r="I10" s="2">
-        <v>0.47759999999999997</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="J10" s="2">
-        <v>0.43369999999999997</v>
+        <v>0.50169999999999992</v>
       </c>
       <c r="K10" s="2">
-        <v>0.439</v>
+        <v>0.40449999999999997</v>
       </c>
       <c r="L10" s="2">
-        <v>0.42599999999999999</v>
+        <v>0.40710000000000002</v>
       </c>
       <c r="M10" s="2">
-        <v>0.37659999999999999</v>
+        <v>0.38969999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B11" s="2">
-        <v>0.29610000000000003</v>
+        <v>0.35209999999999997</v>
       </c>
       <c r="C11" s="2">
-        <v>0.35949999999999999</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3004</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="E11" s="2">
-        <v>0.2732</v>
+        <v>0.3765</v>
       </c>
       <c r="F11" s="2">
-        <v>0.29260000000000003</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>0.30709999999999998</v>
+        <v>0.36219999999999997</v>
       </c>
       <c r="H11" s="2">
-        <v>0.29320000000000002</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>0.35220000000000001</v>
+        <v>0.47759999999999997</v>
       </c>
       <c r="J11" s="2">
-        <v>0.30690000000000001</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="K11" s="2">
-        <v>0.33409999999999995</v>
+        <v>0.439</v>
       </c>
       <c r="L11" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="M11" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.37659999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29610000000000003</v>
       </c>
       <c r="C12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.3004</v>
       </c>
       <c r="E12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2732</v>
       </c>
       <c r="F12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="G12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="I12" s="2">
-        <v>0.26749999999999996</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>0.2545</v>
+        <v>0.33409999999999995</v>
       </c>
       <c r="L12" s="2">
-        <v>0.33879999999999999</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="M12" s="2">
-        <v>0.26729999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="2">
-        <v>0.34050000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.3332</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D13" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0.35360000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>0.26929999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>0.29349999999999998</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="H13" s="2">
         <v>0.24659999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.26749999999999996</v>
       </c>
       <c r="J13" s="2">
-        <v>0.25890000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="K13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.2545</v>
       </c>
       <c r="L13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="M13" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.26729999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="C14" s="2">
-        <v>0.31830000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="D14" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>0.36809999999999998</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="F14" s="2">
-        <v>0.28360000000000002</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="G14" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="H14" s="2">
-        <v>0.35830000000000001</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="I14" s="2">
-        <v>0.36980000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J14" s="2">
-        <v>0.45469999999999999</v>
+        <v>0.25890000000000002</v>
       </c>
       <c r="K14" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>0.30869999999999997</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M14" s="2">
-        <v>0.31120000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31830000000000003</v>
       </c>
       <c r="D15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="G15" s="2">
-        <v>0.29770000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="H15" s="2">
-        <v>0.30560000000000004</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.36980000000000002</v>
       </c>
       <c r="J15" s="2">
-        <v>0.3377</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>0.31690000000000002</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="L15" s="2">
-        <v>0.29389999999999999</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="M15" s="2">
-        <v>0.28029999999999999</v>
+        <v>0.31120000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B16" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.43099999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2918</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>0.39069999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>0.29210000000000003</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>0.29160000000000003</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="H16" s="2">
-        <v>0.31229999999999997</v>
+        <v>0.30560000000000004</v>
       </c>
       <c r="I16" s="2">
-        <v>0.35189999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>0.26629999999999998</v>
+        <v>0.3377</v>
       </c>
       <c r="K16" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="L16" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="M16" s="2">
-        <v>0.24659999999999999</v>
+        <v>0.28029999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="2">
-        <v>0.31069999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C17" s="2">
-        <v>0.3478</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="D17" s="2">
-        <v>0.27090000000000003</v>
+        <v>0.2918</v>
       </c>
       <c r="E17" s="2">
-        <v>0.28760000000000002</v>
+        <v>0.39069999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>0.34229999999999999</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="G17" s="2">
-        <v>0.32039999999999996</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="H17" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.31229999999999997</v>
       </c>
       <c r="I17" s="2">
-        <v>0.43840000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="J17" s="2">
-        <v>0.40439999999999998</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="K17" s="2">
-        <v>0.44409999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="L17" s="2">
-        <v>0.49779999999999996</v>
+        <v>0.24659999999999999</v>
       </c>
       <c r="M17" s="2">
-        <v>0.40879999999999994</v>
+        <v>0.24659999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="2">
-        <v>0.3992</v>
+        <v>0.31069999999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.3478</v>
       </c>
       <c r="D18" s="2">
-        <v>0.31890000000000002</v>
+        <v>0.27090000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>0.43459999999999999</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="F18" s="2">
-        <v>0.37409999999999999</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="G18" s="2">
-        <v>0.41590000000000005</v>
+        <v>0.32039999999999996</v>
       </c>
       <c r="H18" s="2">
-        <v>0.3422</v>
+        <v>0.36150000000000004</v>
       </c>
       <c r="I18" s="2">
-        <v>0.39379999999999998</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="J18" s="2">
-        <v>0.39350000000000002</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="K18" s="2">
-        <v>0.28189999999999998</v>
+        <v>0.44409999999999994</v>
       </c>
       <c r="L18" s="2">
-        <v>0.36110000000000003</v>
+        <v>0.49779999999999996</v>
       </c>
       <c r="M18" s="2">
-        <v>0.30569999999999997</v>
+        <v>0.40879999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="2">
-        <v>0.47400000000000003</v>
+        <v>0.3992</v>
       </c>
       <c r="C19" s="2">
-        <v>0.47970000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D19" s="2">
-        <v>0.31930000000000003</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="E19" s="2">
-        <v>0.45440000000000003</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>0.33229999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="G19" s="2">
-        <v>0.43579999999999997</v>
+        <v>0.41590000000000005</v>
       </c>
       <c r="H19" s="2">
-        <v>0.44079999999999997</v>
+        <v>0.3422</v>
       </c>
       <c r="I19" s="2">
-        <v>0.42209999999999998</v>
+        <v>0.39379999999999998</v>
       </c>
       <c r="J19" s="2">
-        <v>0.49080000000000001</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="K19" s="2">
-        <v>0.39909999999999995</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="L19" s="2">
-        <v>0.4345</v>
+        <v>0.36110000000000003</v>
       </c>
       <c r="M19" s="2">
-        <v>0.37509999999999999</v>
+        <v>0.30569999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="2">
-        <v>0.48719999999999997</v>
+        <v>0.47400000000000003</v>
       </c>
       <c r="C20" s="2">
-        <v>0.43499999999999994</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="D20" s="2">
-        <v>0.34299999999999997</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="E20" s="2">
-        <v>0.51070000000000004</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="F20" s="2">
-        <v>0.44739999999999996</v>
+        <v>0.33229999999999998</v>
       </c>
       <c r="G20" s="2">
-        <v>0.49990000000000001</v>
+        <v>0.43579999999999997</v>
       </c>
       <c r="H20" s="2">
-        <v>0.54660000000000009</v>
+        <v>0.44079999999999997</v>
       </c>
       <c r="I20" s="2">
-        <v>0.54070000000000007</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="J20" s="2">
-        <v>0.59399999999999997</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>0.51090000000000002</v>
+        <v>0.39909999999999995</v>
       </c>
       <c r="L20" s="2">
-        <v>0.45710000000000006</v>
+        <v>0.4345</v>
       </c>
       <c r="M20" s="2">
-        <v>0.44</v>
+        <v>0.37509999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="2">
-        <v>0.43689999999999996</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="C21" s="2">
-        <v>0.37490000000000001</v>
+        <v>0.43499999999999994</v>
       </c>
       <c r="D21" s="2">
-        <v>0.29249999999999998</v>
+        <v>0.34299999999999997</v>
       </c>
       <c r="E21" s="2">
-        <v>0.42480000000000001</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="F21" s="2">
-        <v>0.3342</v>
+        <v>0.44739999999999996</v>
       </c>
       <c r="G21" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="H21" s="2">
-        <v>0.42310000000000003</v>
+        <v>0.54660000000000009</v>
       </c>
       <c r="I21" s="2">
-        <v>0.44229999999999997</v>
+        <v>0.54070000000000007</v>
       </c>
       <c r="J21" s="2">
-        <v>0.4476</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="K21" s="2">
-        <v>0.41980000000000006</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="L21" s="2">
-        <v>0.35760000000000003</v>
+        <v>0.45710000000000006</v>
       </c>
       <c r="M21" s="2">
-        <v>0.36150000000000004</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B22" s="2">
-        <v>0.60840000000000005</v>
+        <v>0.43689999999999996</v>
       </c>
       <c r="C22" s="2">
-        <v>0.73559999999999992</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.65920000000000001</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="E22" s="2">
-        <v>0.62570000000000003</v>
+        <v>0.42480000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>0.66600000000000004</v>
+        <v>0.3342</v>
       </c>
       <c r="G22" s="2">
-        <v>0.7127</v>
+        <v>0.40159999999999996</v>
       </c>
       <c r="H22" s="2">
-        <v>0.66420000000000001</v>
+        <v>0.42310000000000003</v>
       </c>
       <c r="I22" s="2">
-        <v>0.7944</v>
+        <v>0.44229999999999997</v>
       </c>
       <c r="J22" s="2">
-        <v>0.65139999999999998</v>
+        <v>0.4476</v>
       </c>
       <c r="K22" s="2">
-        <v>0.58379999999999999</v>
+        <v>0.41980000000000006</v>
       </c>
       <c r="L22" s="2">
-        <v>0.56869999999999998</v>
+        <v>0.35760000000000003</v>
       </c>
       <c r="M22" s="2">
-        <v>0.42459999999999998</v>
+        <v>0.36150000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="2">
-        <v>0.44539999999999996</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="C23" s="2">
-        <v>0.50629999999999997</v>
+        <v>0.73559999999999992</v>
       </c>
       <c r="D23" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>0.42280000000000001</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="F23" s="2">
-        <v>0.4829</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G23" s="2">
-        <v>0.45729999999999998</v>
+        <v>0.7127</v>
       </c>
       <c r="H23" s="2">
-        <v>0.4052</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="I23" s="2">
-        <v>0.51279999999999992</v>
+        <v>0.7944</v>
       </c>
       <c r="J23" s="2">
-        <v>0.49530000000000002</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="K23" s="2">
-        <v>0.44260000000000005</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="L23" s="2">
-        <v>0.52410000000000001</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="M23" s="2">
-        <v>0.51159999999999994</v>
+        <v>0.42459999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="2">
-        <v>0.34589999999999999</v>
+        <v>0.44539999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>0.38379999999999997</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="D24" s="2">
-        <v>0.28349999999999997</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E24" s="2">
-        <v>0.4194</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>0.40159999999999996</v>
+        <v>0.4829</v>
       </c>
       <c r="G24" s="2">
-        <v>0.42969999999999997</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="H24" s="2">
-        <v>0.39269999999999999</v>
+        <v>0.4052</v>
       </c>
       <c r="I24" s="2">
-        <v>0.49129999999999996</v>
+        <v>0.51279999999999992</v>
       </c>
       <c r="J24" s="2">
-        <v>0.59100000000000008</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="K24" s="2">
-        <v>0.40970000000000001</v>
+        <v>0.44260000000000005</v>
       </c>
       <c r="L24" s="2">
-        <v>0.53859999999999997</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="M24" s="2">
-        <v>0.43990000000000001</v>
+        <v>0.51159999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.4194</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.40159999999999996</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.42969999999999997</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.49129999999999996</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.59100000000000008</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.43990000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>0.54710000000000003</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>0.48</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>0.4713</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>0.377</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>0.49639999999999995</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>0.46109999999999995</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>0.40169999999999995</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="2">
         <v>0.4496</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <v>0.35060000000000002</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L26" s="2">
         <v>0.3785</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M26" s="2">
         <v>0.36659999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1480,9 +1509,12 @@
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:M50">
-    <sortCondition descending="1" ref="A2:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M51">
+    <sortCondition descending="1" ref="A3:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
